--- a/data/JiveTestData.xlsx
+++ b/data/JiveTestData.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>UserName</t>
   </si>
   <si>
     <t>testdata101@localhost</t>
-  </si>
-  <si>
-    <t>testdata102@localhost</t>
   </si>
 </sst>
 </file>
@@ -94,12 +91,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,7 +396,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,17 +415,14 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
